--- a/Input/_old/業務マニュアル.xlsx
+++ b/Input/_old/業務マニュアル.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,30 +470,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>議事録作成</t>
+          <t>スライド作成</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>会議後24時間以内に初版を作成して、先輩にレビューしてもらう。
-3日以内にクライアントに送付。</t>
+          <t>フッターにHigh Confidentialを掲載</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>議事録作成</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>会議後24時間以内に初版を作成して、先輩にレビューしてもらう。
+3日以内にクライアントに送付。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>議事録作成</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>構成は以下の通り。
 ・会議名
@@ -508,16 +523,16 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>議事録作成</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>議事録は「だ・である」調で作成。</t>
         </is>
